--- a/Employee_Reports28/Lemuel Celeste Anacleto Q0150.xlsx
+++ b/Employee_Reports28/Lemuel Celeste Anacleto Q0150.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,10 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +42,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,15 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +465,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -562,11 +568,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -611,11 +617,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -626,51 +632,51 @@
       <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v/>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>06-Oct-2024</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>06-Oct-2025</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="H5" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -705,11 +711,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -752,11 +758,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -789,11 +795,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -836,11 +842,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -883,11 +889,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -930,11 +936,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -977,11 +983,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1014,11 +1020,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1061,11 +1067,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1108,11 +1114,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
